--- a/trunk/hot-deploy/partner/document/02 需求分析/20150326 需求分析/20150320 需求分析.xlsx
+++ b/trunk/hot-deploy/partner/document/02 需求分析/20150326 需求分析/20150320 需求分析.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -548,6 +548,18 @@
   </si>
   <si>
     <t>设置外购物料的合理库存（与生产协商合理库存数量），采购员如多于合理库存下单，系统自动锁定，如一定要下单，需审批</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>料品资料维护编码没有做唯一性过滤。需要这个功能，如果编码重复不能新增。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>把报表权限分离出来。分析报表view的权限需要加到用户权限中。具体每一个报表都需要一个权限。所有角色名称都不能看到报表，报表权限需要另外自己加。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>料品资料维护管理员才有删除权限，其他功能不变。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,12 +736,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -771,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -880,936 +886,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="246">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
+  <dxfs count="123">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3419,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3775,6 +2881,78 @@
       <c r="K10" s="45"/>
       <c r="L10" s="44"/>
     </row>
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="38">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39">
+        <v>42105</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="38">
+        <v>11</v>
+      </c>
+      <c r="B12" s="39">
+        <v>42105</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="38">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39">
+        <v>42105</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G1:G9">
@@ -4232,10 +3410,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9">
       <formula1>"未领取,检查中,已分析,完成,不需要修改,挂起"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
       <formula1>"新增需求,需求变更,存在问题"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
       <formula1>"支票系统,富侨仓库系统,钢管厂系统"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H9">
